--- a/misc/Tables/Data_Inventory.xlsx
+++ b/misc/Tables/Data_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Shared drives/Data Products Team/Products/Immigration Data Hub/DataRepo/data-repo-mvp/misc/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D990C865-27FD-AE45-9C7F-D20F0BDA9A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F43A38-A8BC-FC4D-BA05-5BA2247F635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{2B78574B-C5FF-D748-800A-5C3BF047546C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -54,18 +54,6 @@
     <t>Updated Regularly?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ??? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TODO </t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -112,6 +100,24 @@
   </si>
   <si>
     <t>USCIS Congressional Semi-Monthly Report (CFR/RFR)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>More to come</t>
   </si>
 </sst>
 </file>
@@ -482,177 +488,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74198363-9E5A-E24B-B215-0A37B5E5D420}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G8" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-    <col min="2" max="7" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" customWidth="1"/>
+    <col min="3" max="8" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{507C3B6E-598E-B344-BE8F-BF16074E310B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{ABC96408-A093-D04E-AC8A-E4583F667FF3}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{5C97B418-737B-A245-8F92-774D1AA007BB}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{DAB0F74D-F2F2-8D4A-8168-22D42D116252}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{7018031B-8A40-364F-8C0B-65FC5CBF3147}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{F6225031-E3E2-E346-A63D-C08DD1AF0C27}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{63CF8688-F8AC-3845-BC13-F65F56DDCB71}"/>
-    <hyperlink ref="E2" r:id="rId8" xr:uid="{AD0AB589-AC30-684B-826C-B3F032BD170C}"/>
-    <hyperlink ref="E3" r:id="rId9" xr:uid="{5ECE0C70-8364-DC45-A9F9-0C7D15E2EFB6}"/>
-    <hyperlink ref="E4" r:id="rId10" xr:uid="{58F536B2-EBA6-3A4F-8837-F1E671C0A759}"/>
-    <hyperlink ref="E5" r:id="rId11" xr:uid="{1EF3FC55-D9D4-394B-B6A6-35265FE91006}"/>
-    <hyperlink ref="E6" r:id="rId12" xr:uid="{2CC5DB9C-D409-5841-82E9-C50AD594BA73}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{C00602CD-0FBD-6449-9C6A-310175251FCF}"/>
-    <hyperlink ref="C5" r:id="rId14" xr:uid="{9C667AD2-7695-284A-B619-AD7DBC47B78B}"/>
-    <hyperlink ref="C6" r:id="rId15" xr:uid="{974AC3AB-7890-F946-AE0F-2D7B2181BECF}"/>
-    <hyperlink ref="C7" r:id="rId16" xr:uid="{DC990025-571A-FC4D-8203-5F88F9FB420C}"/>
-    <hyperlink ref="E7" r:id="rId17" xr:uid="{2A9A14A2-3022-7C45-8145-B2F0967ED991}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{507C3B6E-598E-B344-BE8F-BF16074E310B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{ABC96408-A093-D04E-AC8A-E4583F667FF3}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{5C97B418-737B-A245-8F92-774D1AA007BB}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{DAB0F74D-F2F2-8D4A-8168-22D42D116252}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{7018031B-8A40-364F-8C0B-65FC5CBF3147}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{F6225031-E3E2-E346-A63D-C08DD1AF0C27}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{AD0AB589-AC30-684B-826C-B3F032BD170C}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{5ECE0C70-8364-DC45-A9F9-0C7D15E2EFB6}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{58F536B2-EBA6-3A4F-8837-F1E671C0A759}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{1EF3FC55-D9D4-394B-B6A6-35265FE91006}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{2CC5DB9C-D409-5841-82E9-C50AD594BA73}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{C00602CD-0FBD-6449-9C6A-310175251FCF}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{9C667AD2-7695-284A-B619-AD7DBC47B78B}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{974AC3AB-7890-F946-AE0F-2D7B2181BECF}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{DC990025-571A-FC4D-8203-5F88F9FB420C}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{2A9A14A2-3022-7C45-8145-B2F0967ED991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
